--- a/procesosMEM.xlsx
+++ b/procesosMEM.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8151</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.07%</t>
         </is>
       </c>
     </row>
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8151</v>
+        <v>29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.37%</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8097</v>
+        <v>29</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8055</v>
+        <v>29</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>0.47%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.47%</t>
         </is>
       </c>
     </row>
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8055</v>
+        <v>29</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>16.27%</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055</v>
+        <v>29</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.17%</t>
         </is>
       </c>
     </row>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8055</v>
+        <v>29</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>1.96%</t>
         </is>
       </c>
     </row>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8148</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>1.94%</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8100</v>
+        <v>29</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.59%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8148</v>
+        <v>29</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8150</v>
+        <v>29</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>7.00%</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/procesosMEM.xlsx
+++ b/procesosMEM.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>8151</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.04%</t>
         </is>
       </c>
     </row>
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>8151</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>9.37%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.35%</t>
         </is>
       </c>
     </row>
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>8097</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.88%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>8055</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>8055</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>8055</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.09%</t>
         </is>
       </c>
     </row>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>8055</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>8148</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>0.55%</t>
         </is>
       </c>
     </row>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>8100</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.60%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>8148</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>8150</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>0.69%</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
